--- a/Matthias/00-Prework/Zuordnung-TFs-Radiomic-vs-Jana.xlsx
+++ b/Matthias/00-Prework/Zuordnung-TFs-Radiomic-vs-Jana.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\TAToolbox\temp_always_keep_important_data_elsewhere\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\TAToolbox\Matthias\00-Prework\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D07711-08B7-42D2-8C40-6D37069963D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5052" xr2:uid="{3924A306-6C8C-49E6-8355-138D9FEFB154}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5052" activeTab="2" xr2:uid="{3924A306-6C8C-49E6-8355-138D9FEFB154}"/>
   </bookViews>
   <sheets>
     <sheet name="Zuordnung Radiomic - Jana" sheetId="2" r:id="rId1"/>
     <sheet name="Zusätzliche Überprüfung" sheetId="3" r:id="rId2"/>
+    <sheet name="Output_für_Matlab_oder_R" sheetId="4" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="86">
   <si>
     <t>First Order 'Variance'</t>
   </si>
@@ -280,6 +282,9 @@
   </si>
   <si>
     <t>'Strength'</t>
+  </si>
+  <si>
+    <t>TF Names</t>
   </si>
 </sst>
 </file>
@@ -400,7 +405,7 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,6 +486,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
@@ -1009,9 +1021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE9F08D-8687-4A4B-9A20-EFAFFA74EC70}">
   <dimension ref="A1:P43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G10" sqref="G10"/>
+      <selection pane="topRight" activeCell="E2" sqref="E2:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1856,7 +1868,7 @@
         <v>247.94741268854801</v>
       </c>
       <c r="C2" s="4">
-        <f>B2-D2</f>
+        <f t="shared" ref="C2:C43" si="0">B2-D2</f>
         <v>0</v>
       </c>
       <c r="D2" s="4">
@@ -1874,7 +1886,7 @@
         <v>0.21936180768840899</v>
       </c>
       <c r="C3" s="4">
-        <f>B3-D3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D3" s="4">
@@ -1892,7 +1904,7 @@
         <v>-1.55025310747098</v>
       </c>
       <c r="C4" s="4">
-        <f>B4-D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D4" s="4">
@@ -1910,7 +1922,7 @@
         <v>2.1211896697907899E-2</v>
       </c>
       <c r="C5" s="4">
-        <f>B5-D5</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D5" s="20">
@@ -1928,7 +1940,7 @@
         <v>32.937171138412999</v>
       </c>
       <c r="C6" s="4">
-        <f>B6-D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D6" s="20">
@@ -1946,7 +1958,7 @@
         <v>8.3094015307570697</v>
       </c>
       <c r="C7" s="4">
-        <f>B7-D7</f>
+        <f t="shared" si="0"/>
         <v>7.3938090331049748</v>
       </c>
       <c r="D7" s="20">
@@ -1964,7 +1976,7 @@
         <v>0.46897172332425002</v>
       </c>
       <c r="C8" s="4">
-        <f>B8-D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D8" s="20">
@@ -1982,7 +1994,7 @@
         <v>0.91559249765209505</v>
       </c>
       <c r="C9" s="4">
-        <f>B9-D9</f>
+        <f t="shared" si="0"/>
         <v>0.91163571429191292</v>
       </c>
       <c r="D9" s="20">
@@ -2000,7 +2012,7 @@
         <v>3.9567833601821404E-3</v>
       </c>
       <c r="C10" s="4">
-        <f>B10-D10</f>
+        <f t="shared" si="0"/>
         <v>-8.3054447473968871</v>
       </c>
       <c r="D10" s="20">
@@ -2018,7 +2030,7 @@
         <v>4.7633473043667302E-2</v>
       </c>
       <c r="C11" s="4">
-        <f>B11-D11</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D11" s="20">
@@ -2036,7 +2048,7 @@
         <v>3.5238648632476699</v>
       </c>
       <c r="C12" s="4">
-        <f>B12-D12</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D12" s="20">
@@ -2054,7 +2066,7 @@
         <v>0.86205898629938205</v>
       </c>
       <c r="C13" s="4">
-        <f>B13-D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D13" s="8">
@@ -2072,7 +2084,7 @@
         <v>3.0851535108201</v>
       </c>
       <c r="C14" s="4">
-        <f>B14-D14</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D14" s="8">
@@ -2090,7 +2102,7 @@
         <v>3.0854508249568698E-2</v>
       </c>
       <c r="C15" s="4">
-        <f>B15-D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D15" s="8">
@@ -2108,7 +2120,7 @@
         <v>0.70420452219977403</v>
       </c>
       <c r="C16" s="4">
-        <f>B16-D16</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D16" s="8">
@@ -2126,7 +2138,7 @@
         <v>0.74296741742769601</v>
       </c>
       <c r="C17" s="4">
-        <f>B17-D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D17" s="8">
@@ -2144,7 +2156,7 @@
         <v>5.4873874290906698E-2</v>
       </c>
       <c r="C18" s="4">
-        <f>B18-D18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D18" s="8">
@@ -2162,7 +2174,7 @@
         <v>573.10357026562394</v>
       </c>
       <c r="C19" s="4">
-        <f>B19-D19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D19" s="8">
@@ -2180,7 +2192,7 @@
         <v>2.9937020364177801E-2</v>
       </c>
       <c r="C20" s="36">
-        <f>B20-D20</f>
+        <f t="shared" si="0"/>
         <v>-739.02442850274383</v>
       </c>
       <c r="D20" s="8">
@@ -2198,7 +2210,7 @@
         <v>541.440297195987</v>
       </c>
       <c r="C21" s="36">
-        <f>B21-D21</f>
+        <f t="shared" si="0"/>
         <v>541.43754550412928</v>
       </c>
       <c r="D21" s="8">
@@ -2216,7 +2228,7 @@
         <v>0.56521406793541995</v>
       </c>
       <c r="C22" s="36">
-        <f>B22-D22</f>
+        <f t="shared" si="0"/>
         <v>0.56520704077591299</v>
       </c>
       <c r="D22" s="34">
@@ -2234,7 +2246,7 @@
         <v>739.054365523108</v>
       </c>
       <c r="C23" s="36">
-        <f>B23-D23</f>
+        <f t="shared" si="0"/>
         <v>738.42369107166257</v>
       </c>
       <c r="D23" s="12">
@@ -2252,7 +2264,7 @@
         <v>2.75169185773307E-3</v>
       </c>
       <c r="C24" s="36">
-        <f>B24-D24</f>
+        <f t="shared" si="0"/>
         <v>-16889.562663361143</v>
       </c>
       <c r="D24" s="12">
@@ -2270,7 +2282,7 @@
         <v>7.02715950695023E-6</v>
       </c>
       <c r="C25" s="36">
-        <f>B25-D25</f>
+        <f t="shared" si="0"/>
         <v>-3.2399698897324851E-2</v>
       </c>
       <c r="D25" s="12">
@@ -2288,7 +2300,7 @@
         <v>0.63067445144543399</v>
       </c>
       <c r="C26" s="36">
-        <f>B26-D26</f>
+        <f t="shared" si="0"/>
         <v>0.60073743108125621</v>
       </c>
       <c r="D26" s="8">
@@ -2306,7 +2318,7 @@
         <v>16889.565415052999</v>
       </c>
       <c r="C27" s="36">
-        <f>B27-D27</f>
+        <f t="shared" si="0"/>
         <v>16348.125117857013</v>
       </c>
       <c r="D27" s="38">
@@ -2324,7 +2336,7 @@
         <v>3.24067260568318E-2</v>
       </c>
       <c r="C28" s="36">
-        <f>B28-D28</f>
+        <f t="shared" si="0"/>
         <v>-0.53280734187858814</v>
       </c>
       <c r="D28" s="38">
@@ -2342,7 +2354,7 @@
         <v>0.37017655966753998</v>
       </c>
       <c r="C29" s="4">
-        <f>B29-D29</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D29" s="12">
@@ -2360,7 +2372,7 @@
         <v>0.217193080833323</v>
       </c>
       <c r="C30" s="4">
-        <f>B30-D30</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D30" s="12">
@@ -2378,7 +2390,7 @@
         <v>3.36797689249405E-3</v>
       </c>
       <c r="C31" s="4">
-        <f>B31-D31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D31" s="12">
@@ -2396,7 +2408,7 @@
         <v>869.08699556603301</v>
       </c>
       <c r="C32" s="4">
-        <f>B32-D32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D32" s="12">
@@ -2414,7 +2426,7 @@
         <v>1.5172784957517499E-3</v>
       </c>
       <c r="C33" s="4">
-        <f>B33-D33</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D33" s="12">
@@ -2432,7 +2444,7 @@
         <v>553.39508347820697</v>
       </c>
       <c r="C34" s="4">
-        <f>B34-D34</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D34" s="12">
@@ -2450,7 +2462,7 @@
         <v>3668.7043537061099</v>
       </c>
       <c r="C35" s="4">
-        <f>B35-D35</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D35" s="12">
@@ -2468,7 +2480,7 @@
         <v>132444.36700903601</v>
       </c>
       <c r="C36" s="4">
-        <f>B36-D36</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D36" s="12">
@@ -2486,7 +2498,7 @@
         <v>1.2676327679912E-5</v>
       </c>
       <c r="C37" s="4">
-        <f>B37-D37</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D37" s="35">
@@ -2504,7 +2516,7 @@
         <v>1.0644610682771701E-6</v>
       </c>
       <c r="C38" s="4">
-        <f>B38-D38</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D38" s="35">
@@ -2522,7 +2534,7 @@
         <v>2.8806457305636298E-4</v>
       </c>
       <c r="C39" s="4">
-        <f>B39-D39</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D39" s="17">
@@ -2540,7 +2552,7 @@
         <v>0.38410724689013798</v>
       </c>
       <c r="C40" s="4">
-        <f>B40-D40</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D40" s="17">
@@ -2558,7 +2570,7 @@
         <v>8.3211369774952306</v>
       </c>
       <c r="C41" s="4">
-        <f>B41-D41</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D41" s="17">
@@ -2576,7 +2588,7 @@
         <v>1161.70301807855</v>
       </c>
       <c r="C42" s="4">
-        <f>B42-D42</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D42" s="17">
@@ -2594,7 +2606,7 @@
         <v>0.231056500276623</v>
       </c>
       <c r="C43" s="4">
-        <f>B43-D43</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="D43" s="17">
@@ -2608,4 +2620,237 @@
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00374BC7-D462-4563-8AA3-A34265C742DB}">
+  <dimension ref="A1:A43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B12:B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="44.33203125" style="42" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="42" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="40" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="40" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="40" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="40" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="40" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="40" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="40" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="41" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="40" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="40" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="40" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="41" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="41" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="40" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="40" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="40" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="41" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="41" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="40" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="40" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="40" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="40" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="40" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="40" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="40" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="40" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="40" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="40" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Matthias/00-Prework/Zuordnung-TFs-Radiomic-vs-Jana.xlsx
+++ b/Matthias/00-Prework/Zuordnung-TFs-Radiomic-vs-Jana.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19226"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\TAToolbox\Matthias\00-Prework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04D07711-08B7-42D2-8C40-6D37069963D9}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48329059-B59B-4416-92D7-BC2E742E30B1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5052" activeTab="2" xr2:uid="{3924A306-6C8C-49E6-8355-138D9FEFB154}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5055" xr2:uid="{3924A306-6C8C-49E6-8355-138D9FEFB154}"/>
   </bookViews>
   <sheets>
     <sheet name="Zuordnung Radiomic - Jana" sheetId="2" r:id="rId1"/>
     <sheet name="Zusätzliche Überprüfung" sheetId="3" r:id="rId2"/>
     <sheet name="Output_für_Matlab_oder_R" sheetId="4" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Tabelle3[#All]</definedName>
+  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -27,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="131">
   <si>
     <t>First Order 'Variance'</t>
   </si>
@@ -285,6 +288,141 @@
   </si>
   <si>
     <t>TF Names</t>
+  </si>
+  <si>
+    <t>Struct Zuordnung</t>
+  </si>
+  <si>
+    <t>(2) Histogram - Variance</t>
+  </si>
+  <si>
+    <t>(3) Histogram - Skewness</t>
+  </si>
+  <si>
+    <t>(4) Histogram - Kurtosis</t>
+  </si>
+  <si>
+    <t>(8) GTSDM - Contrast</t>
+  </si>
+  <si>
+    <t>(9) GTSDM - Correlation</t>
+  </si>
+  <si>
+    <t>(12) GTSDM - Sum average</t>
+  </si>
+  <si>
+    <t>(15) GTSDM - Entropy</t>
+  </si>
+  <si>
+    <t>(16) GTSDM - Variance</t>
+  </si>
+  <si>
+    <t>(23) GTSDM - Dissimilarity</t>
+  </si>
+  <si>
+    <t>(28) NGTDM - Coarseness</t>
+  </si>
+  <si>
+    <t>(29) NGTDM - Contrast</t>
+  </si>
+  <si>
+    <t>(30) NGTDM - Busyness</t>
+  </si>
+  <si>
+    <t>(31) NGTDM - Complexity</t>
+  </si>
+  <si>
+    <t>(32) NGTDM - Texture Strength</t>
+  </si>
+  <si>
+    <t>(7) GTSDM - Energy</t>
+  </si>
+  <si>
+    <t>(11) GTSDM - Homogeneity 2</t>
+  </si>
+  <si>
+    <t>GLCM/GTDSM 'Homogeneity 2'</t>
+  </si>
+  <si>
+    <t>(45) GLZSM - ZSV</t>
+  </si>
+  <si>
+    <t>(44) GLZSM - GLV</t>
+  </si>
+  <si>
+    <t>(43) GLZSM - ZSP</t>
+  </si>
+  <si>
+    <t>(46) GLRLM - SRE</t>
+  </si>
+  <si>
+    <t>(47) GLRLM - LRE</t>
+  </si>
+  <si>
+    <t>(48) GLRLM - GLN</t>
+  </si>
+  <si>
+    <t>(49) GLRLM - RLN</t>
+  </si>
+  <si>
+    <t>(50) GLRLM - RP</t>
+  </si>
+  <si>
+    <t>(51) GLRLM - LGRE</t>
+  </si>
+  <si>
+    <t>(52) GLRLM - HGRE</t>
+  </si>
+  <si>
+    <t>(53) GLRLM - SRLGE</t>
+  </si>
+  <si>
+    <t>(54) GLRLM - SRHGE</t>
+  </si>
+  <si>
+    <t>(55) GLRLM - LRLGE</t>
+  </si>
+  <si>
+    <t>(56) GLRLM - LRHGE</t>
+  </si>
+  <si>
+    <t>(57) GLRLM - GLV</t>
+  </si>
+  <si>
+    <t>(58) GLRLM - RLV</t>
+  </si>
+  <si>
+    <t>(33) GLZSM - SZE</t>
+  </si>
+  <si>
+    <t>(34) GLZSM - LZE</t>
+  </si>
+  <si>
+    <t>(41) GLZSM - GLN</t>
+  </si>
+  <si>
+    <t>(42) GLZSM - ZSN</t>
+  </si>
+  <si>
+    <t>(35) GLZSM - LGZE</t>
+  </si>
+  <si>
+    <t>(36) GLZSM - HGZE</t>
+  </si>
+  <si>
+    <t>(37) GLZSM - SZLGE</t>
+  </si>
+  <si>
+    <t>(38) GLZSM - SZGE</t>
+  </si>
+  <si>
+    <t>(39) GLZSM - LZLE</t>
+  </si>
+  <si>
+    <t>(40) GLZSM - LZHGE</t>
+  </si>
+  <si>
+    <t>TFCV - GUI - Zuordnung</t>
   </si>
 </sst>
 </file>
@@ -297,7 +435,7 @@
     <numFmt numFmtId="165" formatCode="_-* #,##0.0000000000000000\ _€_-;\-* #,##0.0000000000000000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="0.0000000000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -325,8 +463,34 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -375,8 +539,56 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -399,39 +611,312 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="6" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="6" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="11" fontId="0" fillId="7" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="7" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -442,39 +927,9 @@
     <xf numFmtId="11" fontId="0" fillId="8" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="8" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="1" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="5" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="1" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="11" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -485,28 +940,349 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="1" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="11" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="12" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="12" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="12" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="12" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="12" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="12" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="12" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="12" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="12" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="14" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="14" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="14" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="14" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="14" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="14" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="14" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="12" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="16" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="16" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="16" borderId="18" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="16" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="13" borderId="22" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="13" borderId="18" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="6" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="13" borderId="19" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="6" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="13" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="7" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="11" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="13" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="8" borderId="14" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="8" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="7" fillId="13" borderId="23" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="15" borderId="17" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="15" borderId="18" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="7" fillId="15" borderId="19" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Komma" xfId="2" builtinId="3"/>
     <cellStyle name="Prozent" xfId="1" builtinId="5"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
           <bgColor theme="8" tint="0.59999389629810485"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -523,6 +1299,18 @@
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
       <numFmt numFmtId="166" formatCode="0.0000000000000"/>
       <fill>
         <patternFill patternType="none">
@@ -558,9 +1346,9 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Segoe UI"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="164" formatCode="_-* #,##0.000\ _€_-;\-* #,##0.000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
       <fill>
@@ -598,9 +1386,9 @@
         <vertAlign val="baseline"/>
         <sz val="11"/>
         <color theme="1"/>
-        <name val="Calibri"/>
+        <name val="Segoe UI"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <numFmt numFmtId="165" formatCode="_-* #,##0.0000000000000000\ _€_-;\-* #,##0.0000000000000000\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
       <fill>
@@ -626,42 +1414,6 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="15" formatCode="0.00E+00"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -670,11 +1422,11 @@
         <shadow val="0"/>
         <u val="none"/>
         <vertAlign val="baseline"/>
-        <sz val="11"/>
+        <sz val="12"/>
         <color auto="1"/>
-        <name val="Calibri"/>
+        <name val="Segoe UI"/>
         <family val="2"/>
-        <scheme val="minor"/>
+        <scheme val="none"/>
       </font>
       <fill>
         <patternFill patternType="solid">
@@ -682,6 +1434,7 @@
           <bgColor rgb="FFFFC000"/>
         </patternFill>
       </fill>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -691,6 +1444,13 @@
         </right>
         <top/>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -707,16 +1467,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D0B66447-41F7-4A95-B3BF-6B3A7D4F8E10}" name="Tabelle3" displayName="Tabelle3" ref="A1:E43" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D0B66447-41F7-4A95-B3BF-6B3A7D4F8E10}" name="Tabelle3" displayName="Tabelle3" ref="A1:E43" totalsRowShown="0" headerRowDxfId="6" dataDxfId="1" headerRowBorderDxfId="7">
   <autoFilter ref="A1:E43" xr:uid="{907EAA3C-DCC5-4240-A0FB-6B2CFFBCAAF2}"/>
   <tableColumns count="5">
-    <tableColumn id="20" xr3:uid="{EDBA142E-4191-4B95-A278-FD09FB8A61FA}" name="Radiomic Zuordnung" dataDxfId="4" dataCellStyle="Prozent"/>
-    <tableColumn id="21" xr3:uid="{43793432-1111-4D45-971E-73643D5D464F}" name="Werte Americaner Radiomic " dataDxfId="3" dataCellStyle="Komma"/>
-    <tableColumn id="23" xr3:uid="{677A7587-2211-4455-9547-3DE176274857}" name="Vergleich zu Jana Struct" dataDxfId="2" dataCellStyle="Komma">
+    <tableColumn id="20" xr3:uid="{EDBA142E-4191-4B95-A278-FD09FB8A61FA}" name="TFCV - GUI - Zuordnung" dataDxfId="0"/>
+    <tableColumn id="21" xr3:uid="{43793432-1111-4D45-971E-73643D5D464F}" name="Werte Americaner Radiomic " dataDxfId="5" dataCellStyle="Komma"/>
+    <tableColumn id="23" xr3:uid="{677A7587-2211-4455-9547-3DE176274857}" name="Vergleich zu Jana Struct" dataDxfId="4" dataCellStyle="Komma">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{84D59959-5173-4EC7-A4C6-3EA593C34535}" name="Werte Americaner Jana" dataDxfId="1"/>
-    <tableColumn id="22" xr3:uid="{E94387DA-C425-4C88-AF6F-0659360ADC6E}" name="Jana Struct Zuordnung" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{84D59959-5173-4EC7-A4C6-3EA593C34535}" name="Werte Americaner Jana" dataDxfId="3"/>
+    <tableColumn id="22" xr3:uid="{E94387DA-C425-4C88-AF6F-0659360ADC6E}" name="Struct Zuordnung" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1019,809 +1779,859 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAE9F08D-8687-4A4B-9A20-EFAFFA74EC70}">
-  <dimension ref="A1:P43"/>
+  <dimension ref="A1:O44"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E2" sqref="E2:E43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="38.77734375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="36.109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="8.109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="23.6640625" style="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="1" width="35" style="50" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="50" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" style="50" hidden="1" customWidth="1"/>
+    <col min="4" max="4" width="25.28515625" style="50" hidden="1" customWidth="1"/>
+    <col min="5" max="5" width="36.140625" style="53" customWidth="1"/>
+    <col min="6" max="6" width="23.7109375" style="50" customWidth="1"/>
+    <col min="7" max="16384" width="11.5703125" style="50"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="32" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
-        <v>43</v>
-      </c>
-      <c r="B1" s="31" t="s">
+    <row r="1" spans="1:15" s="30" customFormat="1" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B1" s="26" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3">
+      <c r="E1" s="25" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="29"/>
+    </row>
+    <row r="2" spans="1:15" s="31" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="129" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="54">
         <v>573.17428695477997</v>
       </c>
-      <c r="C2" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D2" s="22">
+      <c r="C2" s="55">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D2" s="56">
         <v>573.17428695477997</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2" t="s">
+      <c r="E2" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="L2" s="51"/>
+    </row>
+    <row r="3" spans="1:15" s="32" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="130" t="s">
+        <v>88</v>
+      </c>
+      <c r="B3" s="58">
+        <v>3.82728361585737E-2</v>
+      </c>
+      <c r="C3" s="59">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D3" s="60">
+        <v>3.82728361585737E-2</v>
+      </c>
+      <c r="E3" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="3">
-        <v>3.82728361585737E-2</v>
-      </c>
-      <c r="C3" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D3" s="22">
-        <v>3.82728361585737E-2</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="L3" s="51"/>
+    </row>
+    <row r="4" spans="1:15" s="33" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="131" t="s">
+        <v>89</v>
+      </c>
+      <c r="B4" s="62">
+        <v>-1.86556239612957</v>
+      </c>
+      <c r="C4" s="63">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D4" s="64">
+        <v>-1.86556239612957</v>
+      </c>
+      <c r="E4" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3">
-        <v>-1.86556239612957</v>
-      </c>
-      <c r="C4" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D4" s="22">
-        <v>-1.86556239612957</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="18" t="s">
+      <c r="L4" s="51"/>
+    </row>
+    <row r="5" spans="1:15" s="34" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="126" t="s">
+        <v>101</v>
+      </c>
+      <c r="B5" s="66">
+        <v>2.86100569135583E-2</v>
+      </c>
+      <c r="C5" s="67">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D5" s="68">
+        <v>2.86100569135583E-2</v>
+      </c>
+      <c r="E5" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="19">
-        <v>2.86100569135583E-2</v>
-      </c>
-      <c r="C5" s="28">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D5" s="23">
-        <v>2.86100569135583E-2</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="18" t="s">
+      <c r="L5" s="51"/>
+    </row>
+    <row r="6" spans="1:15" s="35" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="127" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="70">
+        <v>14.2653654660991</v>
+      </c>
+      <c r="C6" s="71">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D6" s="72">
+        <v>14.2653654660991</v>
+      </c>
+      <c r="E6" s="73" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="19">
-        <v>14.2653654660991</v>
-      </c>
-      <c r="C6" s="28">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D6" s="23">
-        <v>14.2653654660991</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="L6" s="51"/>
+    </row>
+    <row r="7" spans="1:15" s="35" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="B7" s="70">
+        <v>7.8094061147113001</v>
+      </c>
+      <c r="C7" s="71">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>6.844780864337463</v>
+      </c>
+      <c r="D7" s="72">
+        <v>0.96462525037383695</v>
+      </c>
+      <c r="E7" s="73" t="s">
+        <v>8</v>
+      </c>
+      <c r="L7" s="51"/>
+    </row>
+    <row r="8" spans="1:15" s="35" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="127" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="70">
+        <v>0.54979124664533396</v>
+      </c>
+      <c r="C8" s="71">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D8" s="72">
+        <v>0.54979124664533396</v>
+      </c>
+      <c r="E8" s="73" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" s="51"/>
+    </row>
+    <row r="9" spans="1:15" s="35" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="127" t="s">
+        <v>92</v>
+      </c>
+      <c r="B9" s="70">
+        <v>0.96462525037383695</v>
+      </c>
+      <c r="C9" s="71">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0.96050968746309484</v>
+      </c>
+      <c r="D9" s="72">
+        <v>4.1155629107421602E-3</v>
+      </c>
+      <c r="E9" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="L9" s="51"/>
+    </row>
+    <row r="10" spans="1:15" s="35" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="127" t="s">
+        <v>93</v>
+      </c>
+      <c r="B10" s="70">
+        <v>4.1155629107421602E-3</v>
+      </c>
+      <c r="C10" s="71">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>-7.8052905518005575</v>
+      </c>
+      <c r="D10" s="72">
+        <v>7.8094061147113001</v>
+      </c>
+      <c r="E10" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="19">
-        <v>7.8094061147113001</v>
-      </c>
-      <c r="C7" s="30">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>6.844780864337463</v>
-      </c>
-      <c r="D7" s="23">
-        <v>0.96462525037383695</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" s="19">
-        <v>0.54979124664533396</v>
-      </c>
-      <c r="C8" s="28">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D8" s="23">
-        <v>0.54979124664533396</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="19">
-        <v>0.96462525037383695</v>
-      </c>
-      <c r="C9" s="30">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0.96050968746309484</v>
-      </c>
-      <c r="D9" s="23">
-        <v>4.1155629107421602E-3</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B10" s="19">
-        <v>4.1155629107421602E-3</v>
-      </c>
-      <c r="C10" s="30">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>-7.8052905518005575</v>
-      </c>
-      <c r="D10" s="23">
-        <v>7.8094061147113001</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="18" t="s">
+      <c r="L10" s="51"/>
+    </row>
+    <row r="11" spans="1:15" s="35" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="127" t="s">
+        <v>94</v>
+      </c>
+      <c r="B11" s="70">
+        <v>4.9221503906226698E-2</v>
+      </c>
+      <c r="C11" s="71">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="72">
+        <v>4.9221503906226698E-2</v>
+      </c>
+      <c r="E11" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="19">
-        <v>4.9221503906226698E-2</v>
-      </c>
-      <c r="C11" s="28">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
-        <v>4.9221503906226698E-2</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" spans="1:16" s="20" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="18" t="s">
+      <c r="L11" s="51"/>
+    </row>
+    <row r="12" spans="1:15" s="36" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="128" t="s">
+        <v>95</v>
+      </c>
+      <c r="B12" s="74">
+        <v>2.3001205094108998</v>
+      </c>
+      <c r="C12" s="75">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D12" s="76">
+        <v>2.3001205094108998</v>
+      </c>
+      <c r="E12" s="77" t="s">
         <v>5</v>
       </c>
-      <c r="B12" s="19">
-        <v>2.3001205094108998</v>
-      </c>
-      <c r="C12" s="28">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D12" s="23">
-        <v>2.3001205094108998</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="P12" s="21"/>
-    </row>
-    <row r="13" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="5" t="s">
+      <c r="L12" s="51"/>
+      <c r="O12" s="37"/>
+    </row>
+    <row r="13" spans="1:15" s="38" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="123" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="78">
+        <v>0.84943858382700799</v>
+      </c>
+      <c r="C13" s="79">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D13" s="80">
+        <v>0.84943858382700799</v>
+      </c>
+      <c r="E13" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="B13" s="6">
-        <v>0.84943858382700799</v>
-      </c>
-      <c r="C13" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D13" s="24">
-        <v>0.84943858382700799</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="P13" s="7"/>
-    </row>
-    <row r="14" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="L13" s="51"/>
+      <c r="O13" s="39"/>
+    </row>
+    <row r="14" spans="1:15" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="124" t="s">
+        <v>97</v>
+      </c>
+      <c r="B14" s="82">
+        <v>6.2671254789951503</v>
+      </c>
+      <c r="C14" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D14" s="84">
+        <v>6.2671254789951503</v>
+      </c>
+      <c r="E14" s="85" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="6">
-        <v>6.2671254789951503</v>
-      </c>
-      <c r="C14" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D14" s="24">
-        <v>6.2671254789951503</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="P14" s="7"/>
-    </row>
-    <row r="15" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="5" t="s">
+      <c r="L14" s="51"/>
+      <c r="O14" s="41"/>
+    </row>
+    <row r="15" spans="1:15" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="124" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="82">
+        <v>2.5830479995548501E-2</v>
+      </c>
+      <c r="C15" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D15" s="84">
+        <v>2.5830479995548501E-2</v>
+      </c>
+      <c r="E15" s="85" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="6">
-        <v>2.5830479995548501E-2</v>
-      </c>
-      <c r="C15" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D15" s="24">
-        <v>2.5830479995548501E-2</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="P15" s="7"/>
-    </row>
-    <row r="16" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="5" t="s">
+      <c r="L15" s="51"/>
+      <c r="O15" s="41"/>
+    </row>
+    <row r="16" spans="1:15" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="124" t="s">
+        <v>99</v>
+      </c>
+      <c r="B16" s="82">
+        <v>0.68551103815709802</v>
+      </c>
+      <c r="C16" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D16" s="84">
+        <v>0.68551103815709802</v>
+      </c>
+      <c r="E16" s="85" t="s">
         <v>14</v>
       </c>
-      <c r="B16" s="6">
-        <v>0.68551103815709802</v>
-      </c>
-      <c r="C16" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D16" s="24">
-        <v>0.68551103815709802</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="P16" s="7"/>
-    </row>
-    <row r="17" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="5" t="s">
+      <c r="L16" s="51"/>
+      <c r="O16" s="41"/>
+    </row>
+    <row r="17" spans="1:15" s="40" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="125" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="82">
+        <v>0.64771657471204003</v>
+      </c>
+      <c r="C17" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D17" s="84">
+        <v>0.64771657471204003</v>
+      </c>
+      <c r="E17" s="85" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="6">
-        <v>0.64771657471204003</v>
-      </c>
-      <c r="C17" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D17" s="24">
-        <v>0.64771657471204003</v>
-      </c>
-      <c r="E17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="P17" s="7"/>
-    </row>
-    <row r="18" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="9" t="s">
+      <c r="L17" s="51"/>
+      <c r="O17" s="41"/>
+    </row>
+    <row r="18" spans="1:15" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="122" t="s">
+        <v>120</v>
+      </c>
+      <c r="B18" s="82">
+        <v>3.2887752814288802E-2</v>
+      </c>
+      <c r="C18" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D18" s="84">
+        <v>3.2887752814288802E-2</v>
+      </c>
+      <c r="E18" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="6">
-        <v>3.2887752814288802E-2</v>
-      </c>
-      <c r="C18" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D18" s="24">
-        <v>3.2887752814288802E-2</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="P18" s="7"/>
-    </row>
-    <row r="19" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="5" t="s">
+      <c r="L18" s="51"/>
+      <c r="O18" s="41"/>
+    </row>
+    <row r="19" spans="1:15" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="120" t="s">
+        <v>121</v>
+      </c>
+      <c r="B19" s="82">
+        <v>670.83182221553102</v>
+      </c>
+      <c r="C19" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D19" s="84">
+        <v>670.83182221553102</v>
+      </c>
+      <c r="E19" s="85" t="s">
         <v>17</v>
       </c>
-      <c r="B19" s="6">
-        <v>670.83182221553102</v>
-      </c>
-      <c r="C19" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D19" s="24">
-        <v>670.83182221553102</v>
-      </c>
-      <c r="E19" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P19" s="7"/>
-    </row>
-    <row r="20" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="5" t="s">
+      <c r="L19" s="51"/>
+      <c r="O19" s="41"/>
+    </row>
+    <row r="20" spans="1:15" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="120" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" s="82">
+        <v>1.3306090676521E-2</v>
+      </c>
+      <c r="C20" s="87">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>-1064.4440465120035</v>
+      </c>
+      <c r="D20" s="84">
+        <v>1064.45735260268</v>
+      </c>
+      <c r="E20" s="85" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="51"/>
+    </row>
+    <row r="21" spans="1:15" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="120" t="s">
+        <v>125</v>
+      </c>
+      <c r="B21" s="82">
+        <v>616.93068191306099</v>
+      </c>
+      <c r="C21" s="87">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>616.92807870475315</v>
+      </c>
+      <c r="D21" s="84">
+        <v>2.6032083077960999E-3</v>
+      </c>
+      <c r="E21" s="85" t="s">
+        <v>22</v>
+      </c>
+      <c r="L21" s="51"/>
+    </row>
+    <row r="22" spans="1:15" s="40" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="120" t="s">
+        <v>126</v>
+      </c>
+      <c r="B22" s="82">
+        <v>0.96609788957646203</v>
+      </c>
+      <c r="C22" s="87">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0.966093055447521</v>
+      </c>
+      <c r="D22" s="84">
+        <v>4.83412894108827E-6</v>
+      </c>
+      <c r="E22" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="L22" s="51"/>
+    </row>
+    <row r="23" spans="1:15" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="120" t="s">
+        <v>127</v>
+      </c>
+      <c r="B23" s="82">
+        <v>1064.45735260268</v>
+      </c>
+      <c r="C23" s="87">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>1063.8734971829808</v>
+      </c>
+      <c r="D23" s="89">
+        <v>0.58385541969906496</v>
+      </c>
+      <c r="E23" s="90" t="s">
+        <v>29</v>
+      </c>
+      <c r="L23" s="51"/>
+    </row>
+    <row r="24" spans="1:15" s="40" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="120" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" s="82">
+        <v>2.6032083077960999E-3</v>
+      </c>
+      <c r="C24" s="87">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>-24381.348507021692</v>
+      </c>
+      <c r="D24" s="89">
+        <v>24381.35111023</v>
+      </c>
+      <c r="E24" s="91" t="s">
+        <v>30</v>
+      </c>
+      <c r="L24" s="51"/>
+    </row>
+    <row r="25" spans="1:15" s="42" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="120" t="s">
+        <v>129</v>
+      </c>
+      <c r="B25" s="92">
+        <v>4.83412894108827E-6</v>
+      </c>
+      <c r="C25" s="93">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>-3.8137860672272109E-2</v>
+      </c>
+      <c r="D25" s="94">
+        <v>3.8142694801213198E-2</v>
+      </c>
+      <c r="E25" s="95" t="s">
+        <v>31</v>
+      </c>
+      <c r="L25" s="51"/>
+    </row>
+    <row r="26" spans="1:15" s="43" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="120" t="s">
+        <v>122</v>
+      </c>
+      <c r="B26" s="96">
+        <v>0.58385541969906496</v>
+      </c>
+      <c r="C26" s="97">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0.57054932902254396</v>
+      </c>
+      <c r="D26" s="98">
+        <v>1.3306090676521E-2</v>
+      </c>
+      <c r="E26" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="B20" s="6">
-        <v>1.3306090676521E-2</v>
-      </c>
-      <c r="C20" s="29">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>-1064.4440465120035</v>
-      </c>
-      <c r="D20" s="24">
-        <v>1064.45735260268</v>
-      </c>
-      <c r="E20" s="5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="5" t="s">
+      <c r="L26" s="51"/>
+    </row>
+    <row r="27" spans="1:15" s="44" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="120" t="s">
+        <v>123</v>
+      </c>
+      <c r="B27" s="99">
+        <v>24381.35111023</v>
+      </c>
+      <c r="C27" s="87">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>23764.420428316938</v>
+      </c>
+      <c r="D27" s="84">
+        <v>616.93068191306099</v>
+      </c>
+      <c r="E27" s="85" t="s">
         <v>19</v>
       </c>
-      <c r="B21" s="6">
-        <v>616.93068191306099</v>
-      </c>
-      <c r="C21" s="29">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>616.92807870475315</v>
-      </c>
-      <c r="D21" s="24">
-        <v>2.6032083077960999E-3</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="22" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="5" t="s">
+      <c r="L27" s="51"/>
+    </row>
+    <row r="28" spans="1:15" s="44" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="120" t="s">
+        <v>106</v>
+      </c>
+      <c r="B28" s="99">
+        <v>3.8142694801213198E-2</v>
+      </c>
+      <c r="C28" s="87">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>-0.92795519477524879</v>
+      </c>
+      <c r="D28" s="84">
+        <v>0.96609788957646203</v>
+      </c>
+      <c r="E28" s="88" t="s">
         <v>20</v>
       </c>
-      <c r="B22" s="6">
-        <v>0.96609788957646203</v>
-      </c>
-      <c r="C22" s="29">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0.966093055447521</v>
-      </c>
-      <c r="D22" s="24">
-        <v>4.83412894108827E-6</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="23" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="B23" s="6">
-        <v>1064.45735260268</v>
-      </c>
-      <c r="C23" s="29">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>1063.8734971829808</v>
-      </c>
-      <c r="D23" s="25">
-        <v>0.58385541969906496</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="24" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6">
-        <v>2.6032083077960999E-3</v>
-      </c>
-      <c r="C24" s="29">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>-24381.348507021692</v>
-      </c>
-      <c r="D24" s="25">
-        <v>24381.35111023</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="25" spans="1:16" s="8" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B25" s="6">
-        <v>4.83412894108827E-6</v>
-      </c>
-      <c r="C25" s="29">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>-3.8137860672272109E-2</v>
-      </c>
-      <c r="D25" s="25">
-        <v>3.8142694801213198E-2</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="26" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B26" s="11">
-        <v>0.58385541969906496</v>
-      </c>
-      <c r="C26" s="29">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0.57054932902254396</v>
-      </c>
-      <c r="D26" s="24">
-        <v>1.3306090676521E-2</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="11">
-        <v>24381.35111023</v>
-      </c>
-      <c r="C27" s="29">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>23764.420428316938</v>
-      </c>
-      <c r="D27" s="39">
-        <v>616.93068191306099</v>
-      </c>
-      <c r="E27" s="5" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:16" s="13" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="11">
-        <v>3.8142694801213198E-2</v>
-      </c>
-      <c r="C28" s="29">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>-0.92795519477524879</v>
-      </c>
-      <c r="D28" s="39">
-        <v>0.96609788957646203</v>
-      </c>
-      <c r="E28" s="5" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="29" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="10" t="s">
+      <c r="L28" s="51"/>
+    </row>
+    <row r="29" spans="1:15" s="44" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="120" t="s">
+        <v>105</v>
+      </c>
+      <c r="B29" s="99">
+        <v>0.31853709953519099</v>
+      </c>
+      <c r="C29" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D29" s="89">
+        <v>0.31853709953519099</v>
+      </c>
+      <c r="E29" s="90" t="s">
         <v>32</v>
       </c>
-      <c r="B29" s="11">
-        <v>0.31853709953519099</v>
-      </c>
-      <c r="C29" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D29" s="25">
-        <v>0.31853709953519099</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="10" t="s">
+      <c r="L29" s="51"/>
+    </row>
+    <row r="30" spans="1:15" s="44" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="121" t="s">
+        <v>104</v>
+      </c>
+      <c r="B30" s="99">
+        <v>0.122970403237603</v>
+      </c>
+      <c r="C30" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D30" s="89">
+        <v>0.122970403237603</v>
+      </c>
+      <c r="E30" s="91" t="s">
         <v>33</v>
       </c>
-      <c r="B30" s="11">
-        <v>0.122970403237603</v>
-      </c>
-      <c r="C30" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D30" s="25">
-        <v>0.122970403237603</v>
-      </c>
-      <c r="E30" s="10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="14" t="s">
+      <c r="L30" s="51"/>
+    </row>
+    <row r="31" spans="1:15" s="44" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="117" t="s">
+        <v>107</v>
+      </c>
+      <c r="B31" s="99">
+        <v>2.03731230460259E-3</v>
+      </c>
+      <c r="C31" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D31" s="89">
+        <v>2.03731230460259E-3</v>
+      </c>
+      <c r="E31" s="100" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="11">
-        <v>2.03731230460259E-3</v>
-      </c>
-      <c r="C31" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D31" s="25">
-        <v>2.03731230460259E-3</v>
-      </c>
-      <c r="E31" s="14" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="32" spans="1:16" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+      <c r="L31" s="51"/>
+    </row>
+    <row r="32" spans="1:15" s="44" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="118" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32" s="99">
+        <v>1024.4890959555901</v>
+      </c>
+      <c r="C32" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D32" s="89">
+        <v>1024.4890959555901</v>
+      </c>
+      <c r="E32" s="100" t="s">
         <v>35</v>
       </c>
-      <c r="B32" s="11">
-        <v>1024.4890959555901</v>
-      </c>
-      <c r="C32" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D32" s="25">
-        <v>1024.4890959555901</v>
-      </c>
-      <c r="E32" s="14" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+      <c r="L32" s="51"/>
+    </row>
+    <row r="33" spans="1:12" s="44" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="118" t="s">
+        <v>109</v>
+      </c>
+      <c r="B33" s="99">
+        <v>8.0272094235240296E-4</v>
+      </c>
+      <c r="C33" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D33" s="89">
+        <v>8.0272094235240296E-4</v>
+      </c>
+      <c r="E33" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="B33" s="11">
-        <v>8.0272094235240296E-4</v>
-      </c>
-      <c r="C33" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D33" s="25">
-        <v>8.0272094235240296E-4</v>
-      </c>
-      <c r="E33" s="14" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+      <c r="L33" s="51"/>
+    </row>
+    <row r="34" spans="1:12" s="44" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="118" t="s">
+        <v>110</v>
+      </c>
+      <c r="B34" s="99">
+        <v>605.98062568427099</v>
+      </c>
+      <c r="C34" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D34" s="89">
+        <v>605.98062568427099</v>
+      </c>
+      <c r="E34" s="100" t="s">
         <v>37</v>
       </c>
-      <c r="B34" s="11">
-        <v>605.98062568427099</v>
-      </c>
-      <c r="C34" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D34" s="25">
-        <v>605.98062568427099</v>
-      </c>
-      <c r="E34" s="14" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="14" t="s">
+      <c r="L34" s="51"/>
+    </row>
+    <row r="35" spans="1:12" s="44" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="118" t="s">
+        <v>111</v>
+      </c>
+      <c r="B35" s="99">
+        <v>3631.3438330672602</v>
+      </c>
+      <c r="C35" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D35" s="89">
+        <v>3631.3438330672602</v>
+      </c>
+      <c r="E35" s="100" t="s">
         <v>38</v>
       </c>
-      <c r="B35" s="11">
-        <v>3631.3438330672602</v>
-      </c>
-      <c r="C35" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D35" s="25">
-        <v>3631.3438330672602</v>
-      </c>
-      <c r="E35" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14" t="s">
+      <c r="L35" s="51"/>
+    </row>
+    <row r="36" spans="1:12" s="44" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="118" t="s">
+        <v>112</v>
+      </c>
+      <c r="B36" s="99">
+        <v>524509.12539651105</v>
+      </c>
+      <c r="C36" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D36" s="89">
+        <v>524509.12539651105</v>
+      </c>
+      <c r="E36" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="B36" s="11">
-        <v>524509.12539651105</v>
-      </c>
-      <c r="C36" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D36" s="25">
-        <v>524509.12539651105</v>
-      </c>
-      <c r="E36" s="14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="14" t="s">
+      <c r="L36" s="51"/>
+    </row>
+    <row r="37" spans="1:12" s="44" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="118" t="s">
+        <v>113</v>
+      </c>
+      <c r="B37" s="99">
+        <v>1.7442027826775101E-5</v>
+      </c>
+      <c r="C37" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D37" s="89">
+        <v>1.7442027826775101E-5</v>
+      </c>
+      <c r="E37" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="B37" s="11">
-        <v>1.7442027826775101E-5</v>
-      </c>
-      <c r="C37" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D37" s="25">
-        <v>1.7442027826775101E-5</v>
-      </c>
-      <c r="E37" s="14" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="12" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="14" t="s">
+      <c r="L37" s="51"/>
+    </row>
+    <row r="38" spans="1:12" s="45" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="118" t="s">
+        <v>114</v>
+      </c>
+      <c r="B38" s="101">
+        <v>2.9563755240274599E-6</v>
+      </c>
+      <c r="C38" s="102">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D38" s="94">
+        <v>2.9563755240274599E-6</v>
+      </c>
+      <c r="E38" s="113" t="s">
         <v>41</v>
       </c>
-      <c r="B38" s="11">
-        <v>2.9563755240274599E-6</v>
-      </c>
-      <c r="C38" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D38" s="25">
-        <v>2.9563755240274599E-6</v>
-      </c>
-      <c r="E38" s="14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
+      <c r="L38" s="51"/>
+    </row>
+    <row r="39" spans="1:12" s="46" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="118" t="s">
+        <v>115</v>
+      </c>
+      <c r="B39" s="103">
+        <v>4.9336800087102601E-4</v>
+      </c>
+      <c r="C39" s="104">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D39" s="107">
+        <v>4.9336800087102601E-4</v>
+      </c>
+      <c r="E39" s="114" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="16">
-        <v>4.9336800087102601E-4</v>
-      </c>
-      <c r="C39" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D39" s="26">
-        <v>4.9336800087102601E-4</v>
-      </c>
-      <c r="E39" s="15" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
+      <c r="F39" s="110"/>
+      <c r="L39" s="51"/>
+    </row>
+    <row r="40" spans="1:12" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="118" t="s">
+        <v>116</v>
+      </c>
+      <c r="B40" s="105">
+        <v>0.216033581741082</v>
+      </c>
+      <c r="C40" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D40" s="108">
+        <v>0.216033581741082</v>
+      </c>
+      <c r="E40" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="B40" s="16">
-        <v>0.216033581741082</v>
-      </c>
-      <c r="C40" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D40" s="26">
-        <v>0.216033581741082</v>
-      </c>
-      <c r="E40" s="15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
+      <c r="F40" s="111"/>
+      <c r="L40" s="51"/>
+    </row>
+    <row r="41" spans="1:12" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="118" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" s="105">
+        <v>4.0760544272338697</v>
+      </c>
+      <c r="C41" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D41" s="108">
+        <v>4.0760544272338697</v>
+      </c>
+      <c r="E41" s="115" t="s">
         <v>26</v>
       </c>
-      <c r="B41" s="16">
-        <v>4.0760544272338697</v>
-      </c>
-      <c r="C41" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D41" s="26">
-        <v>4.0760544272338697</v>
-      </c>
-      <c r="E41" s="15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
+      <c r="F41" s="111"/>
+      <c r="L41" s="51"/>
+    </row>
+    <row r="42" spans="1:12" s="47" customFormat="1" ht="15.95" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="118" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="105">
+        <v>703.32270335504302</v>
+      </c>
+      <c r="C42" s="83">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D42" s="108">
+        <v>703.32270335504302</v>
+      </c>
+      <c r="E42" s="115" t="s">
         <v>27</v>
       </c>
-      <c r="B42" s="16">
-        <v>703.32270335504302</v>
-      </c>
-      <c r="C42" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D42" s="26">
-        <v>703.32270335504302</v>
-      </c>
-      <c r="E42" s="15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="17" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
+      <c r="F42" s="111"/>
+      <c r="L42" s="51"/>
+    </row>
+    <row r="43" spans="1:12" s="48" customFormat="1" ht="15.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="119" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="106">
+        <v>0.43238238926064998</v>
+      </c>
+      <c r="C43" s="102">
+        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
+        <v>0</v>
+      </c>
+      <c r="D43" s="109">
+        <v>0.43238238926064998</v>
+      </c>
+      <c r="E43" s="116" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="16">
-        <v>0.43238238926064998</v>
-      </c>
-      <c r="C43" s="27">
-        <f>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</f>
-        <v>0</v>
-      </c>
-      <c r="D43" s="26">
-        <v>0.43238238926064998</v>
-      </c>
-      <c r="E43" s="15" t="s">
-        <v>28</v>
-      </c>
+      <c r="F43" s="112"/>
+      <c r="L43" s="51"/>
+    </row>
+    <row r="44" spans="1:12" s="49" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="E44" s="52"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" fitToHeight="0" orientation="portrait" horizontalDpi="4294967293" r:id="rId1"/>
   <tableParts count="1">
     <tablePart r:id="rId2"/>
   </tableParts>
@@ -1836,783 +2646,783 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="40.77734375" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="5" width="40.77734375" customWidth="1"/>
+    <col min="1" max="2" width="40.7109375" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1"/>
+    <col min="4" max="5" width="40.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="C1" s="31" t="s">
+      <c r="C1" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D1" s="31" t="s">
+      <c r="D1" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E1" s="31" t="s">
+      <c r="E1" s="13" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>247.94741268854801</v>
       </c>
-      <c r="C2" s="4">
+      <c r="C2" s="2">
         <f t="shared" ref="C2:C43" si="0">B2-D2</f>
         <v>0</v>
       </c>
-      <c r="D2" s="4">
+      <c r="D2" s="2">
         <v>247.94741268854801</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>0.21936180768840899</v>
       </c>
-      <c r="C3" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D3" s="4">
+      <c r="C3" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D3" s="2">
         <v>0.21936180768840899</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <v>-1.55025310747098</v>
       </c>
-      <c r="C4" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D4" s="4">
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D4" s="2">
         <v>-1.55025310747098</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="20" t="s">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="20">
+      <c r="B5" s="12">
         <v>2.1211896697907899E-2</v>
       </c>
-      <c r="C5" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D5" s="20">
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D5" s="12">
         <v>2.1211896697907899E-2</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="14" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="20" t="s">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="B6" s="20">
+      <c r="B6" s="12">
         <v>32.937171138412999</v>
       </c>
-      <c r="C6" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="20">
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="12">
         <v>32.937171138412999</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="14" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="20" t="s">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" s="12" t="s">
         <v>52</v>
       </c>
-      <c r="B7" s="20">
+      <c r="B7" s="12">
         <v>8.3094015307570697</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="2">
         <f t="shared" si="0"/>
         <v>7.3938090331049748</v>
       </c>
-      <c r="D7" s="20">
+      <c r="D7" s="12">
         <v>0.91559249765209505</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="14" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="20" t="s">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="20">
+      <c r="B8" s="12">
         <v>0.46897172332425002</v>
       </c>
-      <c r="C8" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D8" s="20">
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D8" s="12">
         <v>0.46897172332425002</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="20" t="s">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="B9" s="20">
+      <c r="B9" s="12">
         <v>0.91559249765209505</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="2">
         <f t="shared" si="0"/>
         <v>0.91163571429191292</v>
       </c>
-      <c r="D9" s="20">
+      <c r="D9" s="12">
         <v>3.9567833601821404E-3</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="20" t="s">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="B10" s="20">
+      <c r="B10" s="12">
         <v>3.9567833601821404E-3</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="2">
         <f t="shared" si="0"/>
         <v>-8.3054447473968871</v>
       </c>
-      <c r="D10" s="20">
+      <c r="D10" s="12">
         <v>8.3094015307570697</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="14" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="20" t="s">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="12" t="s">
         <v>47</v>
       </c>
-      <c r="B11" s="20">
+      <c r="B11" s="12">
         <v>4.7633473043667302E-2</v>
       </c>
-      <c r="C11" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D11" s="20">
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D11" s="12">
         <v>4.7633473043667302E-2</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="14" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="20" t="s">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B12" s="20">
+      <c r="B12" s="12">
         <v>3.5238648632476699</v>
       </c>
-      <c r="C12" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D12" s="20">
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D12" s="12">
         <v>3.5238648632476699</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="14" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="8" t="s">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="4">
         <v>0.86205898629938205</v>
       </c>
-      <c r="C13" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D13" s="8">
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <v>0.86205898629938205</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E13" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="B14" s="8">
+      <c r="B14" s="4">
         <v>3.0851535108201</v>
       </c>
-      <c r="C14" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D14" s="8">
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
         <v>3.0851535108201</v>
       </c>
-      <c r="E14" s="5" t="s">
+      <c r="E14" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A15" s="8" t="s">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="B15" s="8">
+      <c r="B15" s="4">
         <v>3.0854508249568698E-2</v>
       </c>
-      <c r="C15" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D15" s="8">
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
         <v>3.0854508249568698E-2</v>
       </c>
-      <c r="E15" s="5" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A16" s="8" t="s">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B16" s="8">
+      <c r="B16" s="4">
         <v>0.70420452219977403</v>
       </c>
-      <c r="C16" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D16" s="8">
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
         <v>0.70420452219977403</v>
       </c>
-      <c r="E16" s="5" t="s">
+      <c r="E16" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="8" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B17" s="8">
+      <c r="B17" s="4">
         <v>0.74296741742769601</v>
       </c>
-      <c r="C17" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
         <v>0.74296741742769601</v>
       </c>
-      <c r="E17" s="37" t="s">
+      <c r="E17" s="18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A18" s="8" t="s">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="4">
         <v>5.4873874290906698E-2</v>
       </c>
-      <c r="C18" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
         <v>5.4873874290906698E-2</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="E18" s="5" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A19" s="8" t="s">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B19" s="8">
+      <c r="B19" s="4">
         <v>573.10357026562394</v>
       </c>
-      <c r="C19" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
         <v>573.10357026562394</v>
       </c>
-      <c r="E19" s="5" t="s">
+      <c r="E19" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A20" s="8" t="s">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B20" s="8">
+      <c r="B20" s="4">
         <v>2.9937020364177801E-2</v>
       </c>
-      <c r="C20" s="36">
+      <c r="C20" s="17">
         <f t="shared" si="0"/>
         <v>-739.02442850274383</v>
       </c>
-      <c r="D20" s="8">
+      <c r="D20" s="4">
         <v>739.054365523108</v>
       </c>
-      <c r="E20" s="5" t="s">
+      <c r="E20" s="3" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A21" s="8" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="8">
+      <c r="B21" s="4">
         <v>541.440297195987</v>
       </c>
-      <c r="C21" s="36">
+      <c r="C21" s="17">
         <f t="shared" si="0"/>
         <v>541.43754550412928</v>
       </c>
-      <c r="D21" s="8">
+      <c r="D21" s="4">
         <v>2.75169185773307E-3</v>
       </c>
-      <c r="E21" s="5" t="s">
+      <c r="E21" s="3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A22" s="8" t="s">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="8">
+      <c r="B22" s="4">
         <v>0.56521406793541995</v>
       </c>
-      <c r="C22" s="36">
+      <c r="C22" s="17">
         <f t="shared" si="0"/>
         <v>0.56520704077591299</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D22" s="15">
         <v>7.02715950695023E-6</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E22" s="3" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A23" s="8" t="s">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B23" s="8">
+      <c r="B23" s="4">
         <v>739.054365523108</v>
       </c>
-      <c r="C23" s="36">
+      <c r="C23" s="17">
         <f t="shared" si="0"/>
         <v>738.42369107166257</v>
       </c>
-      <c r="D23" s="12">
+      <c r="D23" s="7">
         <v>0.63067445144543399</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A24" s="8" t="s">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="4">
         <v>2.75169185773307E-3</v>
       </c>
-      <c r="C24" s="36">
+      <c r="C24" s="17">
         <f t="shared" si="0"/>
         <v>-16889.562663361143</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="7">
         <v>16889.565415052999</v>
       </c>
-      <c r="E24" s="10" t="s">
+      <c r="E24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="8" t="s">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B25" s="34">
+      <c r="B25" s="15">
         <v>7.02715950695023E-6</v>
       </c>
-      <c r="C25" s="36">
+      <c r="C25" s="17">
         <f t="shared" si="0"/>
         <v>-3.2399698897324851E-2</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="7">
         <v>3.24067260568318E-2</v>
       </c>
-      <c r="E25" s="10" t="s">
+      <c r="E25" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="12" t="s">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="B26" s="12">
+      <c r="B26" s="7">
         <v>0.63067445144543399</v>
       </c>
-      <c r="C26" s="36">
+      <c r="C26" s="17">
         <f t="shared" si="0"/>
         <v>0.60073743108125621</v>
       </c>
-      <c r="D26" s="8">
+      <c r="D26" s="4">
         <v>2.9937020364177801E-2</v>
       </c>
-      <c r="E26" s="5" t="s">
+      <c r="E26" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="13" t="s">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B27" s="13">
+      <c r="B27" s="8">
         <v>16889.565415052999</v>
       </c>
-      <c r="C27" s="36">
+      <c r="C27" s="17">
         <f t="shared" si="0"/>
         <v>16348.125117857013</v>
       </c>
-      <c r="D27" s="38">
+      <c r="D27" s="19">
         <v>541.440297195987</v>
       </c>
-      <c r="E27" s="5" t="s">
+      <c r="E27" s="3" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="13" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="13">
+      <c r="B28" s="8">
         <v>3.24067260568318E-2</v>
       </c>
-      <c r="C28" s="36">
+      <c r="C28" s="17">
         <f t="shared" si="0"/>
         <v>-0.53280734187858814</v>
       </c>
-      <c r="D28" s="38">
+      <c r="D28" s="19">
         <v>0.56521406793541995</v>
       </c>
-      <c r="E28" s="5" t="s">
+      <c r="E28" s="3" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A29" s="12" t="s">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="12">
+      <c r="B29" s="7">
         <v>0.37017655966753998</v>
       </c>
-      <c r="C29" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D29" s="12">
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D29" s="7">
         <v>0.37017655966753998</v>
       </c>
-      <c r="E29" s="10" t="s">
+      <c r="E29" s="6" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B30" s="7">
         <v>0.217193080833323</v>
       </c>
-      <c r="C30" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D30" s="12">
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="7">
         <v>0.217193080833323</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="E30" s="6" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="B31" s="12">
+      <c r="B31" s="7">
         <v>3.36797689249405E-3</v>
       </c>
-      <c r="C31" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D31" s="12">
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D31" s="7">
         <v>3.36797689249405E-3</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="9" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A32" s="12" t="s">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="12">
+      <c r="B32" s="7">
         <v>869.08699556603301</v>
       </c>
-      <c r="C32" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D32" s="12">
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D32" s="7">
         <v>869.08699556603301</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="9" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" s="12" t="s">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="12">
+      <c r="B33" s="7">
         <v>1.5172784957517499E-3</v>
       </c>
-      <c r="C33" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D33" s="12">
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D33" s="7">
         <v>1.5172784957517499E-3</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="9" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="12" t="s">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="12">
+      <c r="B34" s="7">
         <v>553.39508347820697</v>
       </c>
-      <c r="C34" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D34" s="12">
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="7">
         <v>553.39508347820697</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="9" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="12" t="s">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B35" s="7">
         <v>3668.7043537061099</v>
       </c>
-      <c r="C35" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D35" s="12">
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D35" s="7">
         <v>3668.7043537061099</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="9" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="12" t="s">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="B36" s="12">
+      <c r="B36" s="7">
         <v>132444.36700903601</v>
       </c>
-      <c r="C36" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D36" s="12">
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D36" s="7">
         <v>132444.36700903601</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="12" t="s">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="B37" s="35">
+      <c r="B37" s="16">
         <v>1.2676327679912E-5</v>
       </c>
-      <c r="C37" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D37" s="35">
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D37" s="16">
         <v>1.2676327679912E-5</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="12" t="s">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="B38" s="35">
+      <c r="B38" s="16">
         <v>1.0644610682771701E-6</v>
       </c>
-      <c r="C38" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D38" s="35">
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="16">
         <v>1.0644610682771701E-6</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="17" t="s">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="B39" s="17">
+      <c r="B39" s="11">
         <v>2.8806457305636298E-4</v>
       </c>
-      <c r="C39" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D39" s="17">
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D39" s="11">
         <v>2.8806457305636298E-4</v>
       </c>
-      <c r="E39" s="15" t="s">
+      <c r="E39" s="10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="17" t="s">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B40" s="17">
+      <c r="B40" s="11">
         <v>0.38410724689013798</v>
       </c>
-      <c r="C40" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D40" s="17">
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D40" s="11">
         <v>0.38410724689013798</v>
       </c>
-      <c r="E40" s="15" t="s">
+      <c r="E40" s="10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" s="17" t="s">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="B41" s="17">
+      <c r="B41" s="11">
         <v>8.3211369774952306</v>
       </c>
-      <c r="C41" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D41" s="17">
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D41" s="11">
         <v>8.3211369774952306</v>
       </c>
-      <c r="E41" s="15" t="s">
+      <c r="E41" s="10" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" s="17" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="B42" s="17">
+      <c r="B42" s="11">
         <v>1161.70301807855</v>
       </c>
-      <c r="C42" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D42" s="17">
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="11">
         <v>1161.70301807855</v>
       </c>
-      <c r="E42" s="15" t="s">
+      <c r="E42" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" s="17" t="s">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="17">
+      <c r="B43" s="11">
         <v>0.231056500276623</v>
       </c>
-      <c r="C43" s="4">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="D43" s="17">
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D43" s="11">
         <v>0.231056500276623</v>
       </c>
-      <c r="E43" s="15" t="s">
+      <c r="E43" s="10" t="s">
         <v>28</v>
       </c>
     </row>
@@ -2626,231 +3436,232 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00374BC7-D462-4563-8AA3-A34265C742DB}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B12:B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.33203125" style="42" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="42" t="s">
+    <row r="1" spans="1:1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="24" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="40" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="40" t="s">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="21" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="21" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="40" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="10" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="10" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="40" t="s">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40" t="s">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="40" t="s">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="10" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="40" t="s">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="40" t="s">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="40" t="s">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A15" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A16" s="9" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="40" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="41" t="s">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="40" t="s">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="40" t="s">
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20" s="9" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="40" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21" s="9" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22" s="9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="41" t="s">
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23" s="6" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="41" t="s">
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24" s="6" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="41" t="s">
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25" s="6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="40" t="s">
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26" s="9" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A27" s="40" t="s">
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27" s="9" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A28" s="40" t="s">
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28" s="9" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29" s="22" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A30" s="41" t="s">
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30" s="22" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A31" s="40" t="s">
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31" s="23" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A32" s="40" t="s">
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32" s="23" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="40" t="s">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33" s="23" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="40" t="s">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" s="23" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="40" t="s">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" s="23" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="40" t="s">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" s="23" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="40" t="s">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" s="23" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="40" t="s">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="40" t="s">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="40" t="s">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="40" t="s">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="40" t="s">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="40" t="s">
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>28</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Matthias/00-Prework/Zuordnung-TFs-Radiomic-vs-Jana.xlsx
+++ b/Matthias/00-Prework/Zuordnung-TFs-Radiomic-vs-Jana.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\matth\Documents\GitHub\TAToolbox\Matthias\00-Prework\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48329059-B59B-4416-92D7-BC2E742E30B1}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC8808C-4C74-4DF8-B154-4BFDA5B3B042}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17250" windowHeight="5055" xr2:uid="{3924A306-6C8C-49E6-8355-138D9FEFB154}"/>
   </bookViews>
@@ -1222,60 +1222,6 @@
         <family val="2"/>
         <scheme val="none"/>
       </font>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor auto="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Segoe UI"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -1415,6 +1361,67 @@
     </dxf>
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Segoe UI"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor auto="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -1446,13 +1453,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <border>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1467,16 +1467,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D0B66447-41F7-4A95-B3BF-6B3A7D4F8E10}" name="Tabelle3" displayName="Tabelle3" ref="A1:E43" totalsRowShown="0" headerRowDxfId="6" dataDxfId="1" headerRowBorderDxfId="7">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D0B66447-41F7-4A95-B3BF-6B3A7D4F8E10}" name="Tabelle3" displayName="Tabelle3" ref="A1:E43" totalsRowShown="0" headerRowDxfId="7" dataDxfId="5" headerRowBorderDxfId="6">
   <autoFilter ref="A1:E43" xr:uid="{907EAA3C-DCC5-4240-A0FB-6B2CFFBCAAF2}"/>
   <tableColumns count="5">
-    <tableColumn id="20" xr3:uid="{EDBA142E-4191-4B95-A278-FD09FB8A61FA}" name="TFCV - GUI - Zuordnung" dataDxfId="0"/>
-    <tableColumn id="21" xr3:uid="{43793432-1111-4D45-971E-73643D5D464F}" name="Werte Americaner Radiomic " dataDxfId="5" dataCellStyle="Komma"/>
-    <tableColumn id="23" xr3:uid="{677A7587-2211-4455-9547-3DE176274857}" name="Vergleich zu Jana Struct" dataDxfId="4" dataCellStyle="Komma">
+    <tableColumn id="20" xr3:uid="{EDBA142E-4191-4B95-A278-FD09FB8A61FA}" name="TFCV - GUI - Zuordnung" dataDxfId="4"/>
+    <tableColumn id="21" xr3:uid="{43793432-1111-4D45-971E-73643D5D464F}" name="Werte Americaner Radiomic " dataDxfId="3" dataCellStyle="Komma"/>
+    <tableColumn id="23" xr3:uid="{677A7587-2211-4455-9547-3DE176274857}" name="Vergleich zu Jana Struct" dataDxfId="2" dataCellStyle="Komma">
       <calculatedColumnFormula>Tabelle3[[#This Row],[Werte Americaner Radiomic ]]-Tabelle3[[#This Row],[Werte Americaner Jana]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{84D59959-5173-4EC7-A4C6-3EA593C34535}" name="Werte Americaner Jana" dataDxfId="3"/>
-    <tableColumn id="22" xr3:uid="{E94387DA-C425-4C88-AF6F-0659360ADC6E}" name="Struct Zuordnung" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{84D59959-5173-4EC7-A4C6-3EA593C34535}" name="Werte Americaner Jana" dataDxfId="1"/>
+    <tableColumn id="22" xr3:uid="{E94387DA-C425-4C88-AF6F-0659360ADC6E}" name="Struct Zuordnung" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1783,7 +1783,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="E1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="G9" sqref="G9"/>
+      <selection pane="topRight" activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
@@ -3436,7 +3436,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00374BC7-D462-4563-8AA3-A34265C742DB}">
   <dimension ref="A1:A43"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
